--- a/s4/Financial Management/ASKHSH_4_Aposveseis..xlsx
+++ b/s4/Financial Management/ASKHSH_4_Aposveseis..xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="-75" windowWidth="9525" windowHeight="6435" activeTab="4"/>
+    <workbookView xWindow="-240" yWindow="-75" windowWidth="9525" windowHeight="6435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DEDOMENA" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
   <si>
     <t>ΜΕΘΟΔΟΙ ΑΠΟΣΒΕΣΕΩΣ</t>
   </si>
@@ -289,6 +289,39 @@
   </si>
   <si>
     <t>Φθίνουσα</t>
+  </si>
+  <si>
+    <t>Με ποια μέθοδο εμφάνισε η εταιρία τα μεγαλύτερα κέρδη;</t>
+  </si>
+  <si>
+    <t>εμφανίζει λιγότερες αποσβέσεις</t>
+  </si>
+  <si>
+    <t>λιγότερα έξοδα, πλήρωσε περισσότερο φόρο</t>
+  </si>
+  <si>
+    <t>Μον. Παραγωγής λιγότερα κέρδη</t>
+  </si>
+  <si>
+    <t>κερδη λογιστικά</t>
+  </si>
+  <si>
+    <t>εξοδα-εσοδα</t>
+  </si>
+  <si>
+    <t>ταμιακή ροή</t>
+  </si>
+  <si>
+    <t>είναι η ρευστότητα</t>
+  </si>
+  <si>
+    <t>δείχνει πόσο φόρο θα πληρώσει</t>
+  </si>
+  <si>
+    <t>Αν θέλω να πάρω δάνειο, επιλέγω την SLN</t>
+  </si>
+  <si>
+    <t>Αν θέλω να εμφανίσω μεγάλη ρευστότητα τότε επιλέγω την μον. Παραγωγής</t>
   </si>
 </sst>
 </file>
@@ -382,7 +415,7 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +425,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +466,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -558,6 +597,12 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -693,6 +738,18 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>445000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>445000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>445000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -737,6 +794,18 @@
               <c:numCache>
                 <c:formatCode>#,##0\ _€;\-#,##0\ _€</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>176000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163636.36363636365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -781,6 +850,18 @@
               <c:numCache>
                 <c:formatCode>#,##0\ _€;\-#,##0\ _€</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>255000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>179000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191363.63636363635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -825,16 +906,27 @@
               <c:numCache>
                 <c:formatCode>#,##0\ _€;\-#,##0\ _€</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>265750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>292350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>288022.72727272729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293750</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="221647616"/>
-        <c:axId val="221649152"/>
+        <c:axId val="213914368"/>
+        <c:axId val="213915904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="221647616"/>
+        <c:axId val="213914368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -858,14 +950,14 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221649152"/>
+        <c:crossAx val="213915904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221649152"/>
+        <c:axId val="213915904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,7 +982,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221647616"/>
+        <c:crossAx val="213914368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -938,7 +1030,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -994,16 +1086,16 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>445000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>445000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>445000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>445000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1050,16 +1142,16 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>176000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>163636.36363636365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1106,16 +1198,16 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>165750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>116350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>124386.36363636363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>113750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1162,27 +1254,26 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>265750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>292350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>288022.72727272729</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>293750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="226187136"/>
-        <c:axId val="226188672"/>
+        <c:axId val="213968768"/>
+        <c:axId val="213970304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="226187136"/>
+        <c:axId val="213968768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,14 +1297,14 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226188672"/>
+        <c:crossAx val="213970304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="226188672"/>
+        <c:axId val="213970304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,13 +1329,14 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226187136"/>
+        <c:crossAx val="213968768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1285,7 +1377,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1341,16 +1433,16 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>176000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>163636.36363636365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1397,16 +1489,16 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1453,16 +1545,16 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>396000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>345454.54545454547</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,27 +1601,26 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>900000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>704000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>754545.45454545459</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>720000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="222042752"/>
-        <c:axId val="222060928"/>
+        <c:axId val="214407808"/>
+        <c:axId val="214425984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="222042752"/>
+        <c:axId val="214407808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,14 +1644,14 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222060928"/>
+        <c:crossAx val="214425984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222060928"/>
+        <c:axId val="214425984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,13 +1676,14 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222042752"/>
+        <c:crossAx val="214407808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1632,7 +1724,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2054,7 +2146,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2096,7 +2188,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2118,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N72"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2629,21 +2721,30 @@
       <c r="B67" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="2">
+        <f>IC</f>
+        <v>1100000</v>
+      </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="2:4" ht="14.25">
       <c r="B68" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2">
+        <f>'Pin1-SLN'!E16</f>
+        <v>200000</v>
+      </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="2:4" ht="14.25">
       <c r="B69" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="2">
+        <f>C67-C68</f>
+        <v>900000</v>
+      </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="2:4" ht="14.25">
@@ -2835,7 +2936,7 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
-        <f>IC-E14</f>
+        <f t="shared" ref="F14:F24" si="0">IC-E14</f>
         <v>1100000</v>
       </c>
     </row>
@@ -2845,11 +2946,11 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <f>(1/N)*(IC-SV)</f>
+        <f t="shared" ref="C15:C24" si="1">(1/N)*(IC-SV)</f>
         <v>100000</v>
       </c>
       <c r="D15" s="3">
-        <f>SLN(IC,SV,N)</f>
+        <f t="shared" ref="D15:D24" si="2">SLN(IC,SV,N)</f>
         <v>100000</v>
       </c>
       <c r="E15" s="4">
@@ -2857,7 +2958,7 @@
         <v>100000</v>
       </c>
       <c r="F15" s="4">
-        <f>IC-E15</f>
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="G15" s="46">
@@ -2871,23 +2972,23 @@
         <v>2</v>
       </c>
       <c r="C16" s="3">
-        <f>(1/N)*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D16" s="3">
-        <f>SLN(IC,SV,N)</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" ref="E16:E24" si="0">D16+E15</f>
+        <f t="shared" ref="E16:E24" si="3">D16+E15</f>
         <v>200000</v>
       </c>
       <c r="F16" s="4">
-        <f>IC-E16</f>
+        <f t="shared" si="0"/>
         <v>900000</v>
       </c>
       <c r="G16" s="46">
-        <f t="shared" ref="G16:G24" si="1">C16/$C$26</f>
+        <f t="shared" ref="G16:G24" si="4">C16/$C$26</f>
         <v>0.1</v>
       </c>
     </row>
@@ -2897,23 +2998,23 @@
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <f>(1/N)*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D17" s="3">
-        <f>SLN(IC,SV,N)</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="E17" s="4">
+        <f t="shared" si="3"/>
+        <v>300000</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
-        <v>300000</v>
-      </c>
-      <c r="F17" s="4">
-        <f>IC-E17</f>
         <v>800000</v>
       </c>
       <c r="G17" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
@@ -2923,23 +3024,23 @@
         <v>4</v>
       </c>
       <c r="C18" s="3">
-        <f>(1/N)*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D18" s="3">
-        <f>SLN(IC,SV,N)</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="E18" s="4">
+        <f t="shared" si="3"/>
+        <v>400000</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" si="0"/>
-        <v>400000</v>
-      </c>
-      <c r="F18" s="4">
-        <f>IC-E18</f>
         <v>700000</v>
       </c>
       <c r="G18" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
@@ -2949,23 +3050,23 @@
         <v>5</v>
       </c>
       <c r="C19" s="3">
-        <f>(1/N)*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D19" s="3">
-        <f>SLN(IC,SV,N)</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="E19" s="4">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="F19" s="4">
         <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="F19" s="4">
-        <f>IC-E19</f>
         <v>600000</v>
       </c>
       <c r="G19" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
@@ -2975,23 +3076,23 @@
         <v>6</v>
       </c>
       <c r="C20" s="3">
-        <f>(1/N)*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D20" s="3">
-        <f>SLN(IC,SV,N)</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="E20" s="4">
+        <f t="shared" si="3"/>
+        <v>600000</v>
+      </c>
+      <c r="F20" s="4">
         <f t="shared" si="0"/>
-        <v>600000</v>
-      </c>
-      <c r="F20" s="4">
-        <f>IC-E20</f>
         <v>500000</v>
       </c>
       <c r="G20" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
@@ -3001,23 +3102,23 @@
         <v>7</v>
       </c>
       <c r="C21" s="3">
-        <f>(1/N)*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D21" s="3">
-        <f>SLN(IC,SV,N)</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="E21" s="4">
+        <f t="shared" si="3"/>
+        <v>700000</v>
+      </c>
+      <c r="F21" s="4">
         <f t="shared" si="0"/>
-        <v>700000</v>
-      </c>
-      <c r="F21" s="4">
-        <f>IC-E21</f>
         <v>400000</v>
       </c>
       <c r="G21" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
@@ -3027,23 +3128,23 @@
         <v>8</v>
       </c>
       <c r="C22" s="3">
-        <f>(1/N)*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D22" s="3">
-        <f>SLN(IC,SV,N)</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="E22" s="4">
+        <f t="shared" si="3"/>
+        <v>800000</v>
+      </c>
+      <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>800000</v>
-      </c>
-      <c r="F22" s="4">
-        <f>IC-E22</f>
         <v>300000</v>
       </c>
       <c r="G22" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
@@ -3053,23 +3154,23 @@
         <v>9</v>
       </c>
       <c r="C23" s="3">
-        <f>(1/N)*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D23" s="3">
-        <f>SLN(IC,SV,N)</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="E23" s="4">
+        <f t="shared" si="3"/>
+        <v>900000</v>
+      </c>
+      <c r="F23" s="4">
         <f t="shared" si="0"/>
-        <v>900000</v>
-      </c>
-      <c r="F23" s="4">
-        <f>IC-E23</f>
         <v>200000</v>
       </c>
       <c r="G23" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
@@ -3079,23 +3180,23 @@
         <v>10</v>
       </c>
       <c r="C24" s="3">
-        <f>(1/N)*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D24" s="3">
-        <f>SLN(IC,SV,N)</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="E24" s="4">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="F24" s="4">
         <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="F24" s="4">
-        <f>IC-E24</f>
         <v>100000</v>
       </c>
       <c r="G24" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
@@ -3304,7 +3405,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4">
-        <f>IC-E13</f>
+        <f t="shared" ref="F13:F23" si="0">IC-E13</f>
         <v>1100000</v>
       </c>
     </row>
@@ -3313,11 +3414,11 @@
         <v>1</v>
       </c>
       <c r="C14" s="4">
-        <f>2*(1/N)*F13</f>
+        <f t="shared" ref="C14:C23" si="1">2*(1/N)*F13</f>
         <v>220000</v>
       </c>
       <c r="D14" s="4">
-        <f>DDB(IC,SV,N,B14)</f>
+        <f t="shared" ref="D14:D23" si="2">DDB(IC,SV,N,B14)</f>
         <v>220000</v>
       </c>
       <c r="E14" s="4">
@@ -3325,7 +3426,7 @@
         <v>220000</v>
       </c>
       <c r="F14" s="4">
-        <f>IC-E14</f>
+        <f t="shared" si="0"/>
         <v>880000</v>
       </c>
       <c r="G14" s="47">
@@ -3338,23 +3439,23 @@
         <v>2</v>
       </c>
       <c r="C15" s="4">
-        <f>2*(1/N)*F14</f>
+        <f t="shared" si="1"/>
         <v>176000</v>
       </c>
       <c r="D15" s="4">
-        <f>DDB(IC,SV,N,B15)</f>
+        <f t="shared" si="2"/>
         <v>176000</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" ref="E15:E23" si="0">D15+E14</f>
+        <f t="shared" ref="E15:E23" si="3">D15+E14</f>
         <v>396000</v>
       </c>
       <c r="F15" s="4">
-        <f>IC-E15</f>
+        <f t="shared" si="0"/>
         <v>704000</v>
       </c>
       <c r="G15" s="47">
-        <f t="shared" ref="G15:G23" si="1">C15/$C$25</f>
+        <f t="shared" ref="G15:G23" si="4">C15/$C$25</f>
         <v>0.17924643993626746</v>
       </c>
     </row>
@@ -3363,23 +3464,23 @@
         <v>3</v>
       </c>
       <c r="C16" s="4">
-        <f>2*(1/N)*F15</f>
+        <f t="shared" si="1"/>
         <v>140800</v>
       </c>
       <c r="D16" s="4">
-        <f>DDB(IC,SV,N,B16)</f>
+        <f t="shared" si="2"/>
         <v>140800.00000000003</v>
       </c>
       <c r="E16" s="4">
+        <f t="shared" si="3"/>
+        <v>536800</v>
+      </c>
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
-        <v>536800</v>
-      </c>
-      <c r="F16" s="4">
-        <f>IC-E16</f>
         <v>563200</v>
       </c>
       <c r="G16" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.14339715194901398</v>
       </c>
     </row>
@@ -3388,23 +3489,23 @@
         <v>4</v>
       </c>
       <c r="C17" s="4">
-        <f>2*(1/N)*F16</f>
+        <f t="shared" si="1"/>
         <v>112640</v>
       </c>
       <c r="D17" s="4">
-        <f>DDB(IC,SV,N,B17)</f>
+        <f t="shared" si="2"/>
         <v>112640.00000000003</v>
       </c>
       <c r="E17" s="4">
+        <f t="shared" si="3"/>
+        <v>649440</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
-        <v>649440</v>
-      </c>
-      <c r="F17" s="4">
-        <f>IC-E17</f>
         <v>450560</v>
       </c>
       <c r="G17" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11471772155921117</v>
       </c>
     </row>
@@ -3413,23 +3514,23 @@
         <v>5</v>
       </c>
       <c r="C18" s="4">
-        <f>2*(1/N)*F17</f>
+        <f t="shared" si="1"/>
         <v>90112</v>
       </c>
       <c r="D18" s="4">
-        <f>DDB(IC,SV,N,B18)</f>
+        <f t="shared" si="2"/>
         <v>90112.000000000058</v>
       </c>
       <c r="E18" s="4">
+        <f t="shared" si="3"/>
+        <v>739552</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" si="0"/>
-        <v>739552</v>
-      </c>
-      <c r="F18" s="4">
-        <f>IC-E18</f>
         <v>360448</v>
       </c>
       <c r="G18" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.1774177247368943E-2</v>
       </c>
     </row>
@@ -3438,23 +3539,23 @@
         <v>6</v>
       </c>
       <c r="C19" s="4">
-        <f>2*(1/N)*F18</f>
+        <f t="shared" si="1"/>
         <v>72089.600000000006</v>
       </c>
       <c r="D19" s="4">
-        <f>DDB(IC,SV,N,B19)</f>
+        <f t="shared" si="2"/>
         <v>72089.600000000049</v>
       </c>
       <c r="E19" s="4">
+        <f t="shared" si="3"/>
+        <v>811641.60000000009</v>
+      </c>
+      <c r="F19" s="4">
         <f t="shared" si="0"/>
-        <v>811641.60000000009</v>
-      </c>
-      <c r="F19" s="4">
-        <f>IC-E19</f>
         <v>288358.39999999991</v>
       </c>
       <c r="G19" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.3419341797895152E-2</v>
       </c>
     </row>
@@ -3463,23 +3564,23 @@
         <v>7</v>
       </c>
       <c r="C20" s="4">
-        <f>2*(1/N)*F19</f>
+        <f t="shared" si="1"/>
         <v>57671.679999999986</v>
       </c>
       <c r="D20" s="4">
-        <f>DDB(IC,SV,N,B20)</f>
+        <f t="shared" si="2"/>
         <v>57671.680000000044</v>
       </c>
       <c r="E20" s="4">
+        <f t="shared" si="3"/>
+        <v>869313.28000000014</v>
+      </c>
+      <c r="F20" s="4">
         <f t="shared" si="0"/>
-        <v>869313.28000000014</v>
-      </c>
-      <c r="F20" s="4">
-        <f>IC-E20</f>
         <v>230686.71999999986</v>
       </c>
       <c r="G20" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.8735473438316109E-2</v>
       </c>
     </row>
@@ -3488,23 +3589,23 @@
         <v>8</v>
       </c>
       <c r="C21" s="4">
-        <f>2*(1/N)*F20</f>
+        <f t="shared" si="1"/>
         <v>46137.343999999975</v>
       </c>
       <c r="D21" s="4">
-        <f>DDB(IC,SV,N,B21)</f>
+        <f t="shared" si="2"/>
         <v>46137.344000000041</v>
       </c>
       <c r="E21" s="4">
+        <f t="shared" si="3"/>
+        <v>915450.62400000019</v>
+      </c>
+      <c r="F21" s="4">
         <f t="shared" si="0"/>
-        <v>915450.62400000019</v>
-      </c>
-      <c r="F21" s="4">
-        <f>IC-E21</f>
         <v>184549.37599999981</v>
       </c>
       <c r="G21" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.6988378750652871E-2</v>
       </c>
     </row>
@@ -3513,23 +3614,23 @@
         <v>9</v>
       </c>
       <c r="C22" s="4">
-        <f>2*(1/N)*F21</f>
+        <f t="shared" si="1"/>
         <v>36909.875199999966</v>
       </c>
       <c r="D22" s="4">
-        <f>DDB(IC,SV,N,B22)</f>
+        <f t="shared" si="2"/>
         <v>36909.875200000031</v>
       </c>
       <c r="E22" s="4">
+        <f t="shared" si="3"/>
+        <v>952360.49920000019</v>
+      </c>
+      <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>952360.49920000019</v>
-      </c>
-      <c r="F22" s="4">
-        <f>IC-E22</f>
         <v>147639.50079999981</v>
       </c>
       <c r="G22" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.759070300052228E-2</v>
       </c>
     </row>
@@ -3538,23 +3639,23 @@
         <v>10</v>
       </c>
       <c r="C23" s="4">
-        <f>2*(1/N)*F22</f>
+        <f t="shared" si="1"/>
         <v>29527.900159999961</v>
       </c>
       <c r="D23" s="4">
-        <f>DDB(IC,SV,N,B23)</f>
+        <f t="shared" si="2"/>
         <v>29527.900160000027</v>
       </c>
       <c r="E23" s="4">
+        <f t="shared" si="3"/>
+        <v>981888.39936000027</v>
+      </c>
+      <c r="F23" s="4">
         <f t="shared" si="0"/>
-        <v>981888.39936000027</v>
-      </c>
-      <c r="F23" s="4">
-        <f>IC-E23</f>
         <v>118111.60063999973</v>
       </c>
       <c r="G23" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.0072562400417814E-2</v>
       </c>
     </row>
@@ -3728,7 +3829,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4">
-        <f>IC-E13</f>
+        <f t="shared" ref="F13:F23" si="0">IC-E13</f>
         <v>1100000</v>
       </c>
     </row>
@@ -3738,11 +3839,11 @@
         <v>1</v>
       </c>
       <c r="C14" s="4">
-        <f>(N-B13)/SUM_N*(IC-SV)</f>
+        <f t="shared" ref="C14:C23" si="1">(N-B13)/SUM_N*(IC-SV)</f>
         <v>181818.18181818182</v>
       </c>
       <c r="D14" s="4">
-        <f>SYD(IC,SV,N,B14)</f>
+        <f t="shared" ref="D14:D23" si="2">SYD(IC,SV,N,B14)</f>
         <v>181818.18181818182</v>
       </c>
       <c r="E14" s="4">
@@ -3750,7 +3851,7 @@
         <v>181818.18181818182</v>
       </c>
       <c r="F14" s="4">
-        <f>IC-E14</f>
+        <f t="shared" si="0"/>
         <v>918181.81818181812</v>
       </c>
       <c r="G14" s="37">
@@ -3764,23 +3865,23 @@
         <v>2</v>
       </c>
       <c r="C15" s="4">
-        <f>(N-B14)/SUM_N*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>163636.36363636365</v>
       </c>
       <c r="D15" s="4">
-        <f>SYD(IC,SV,N,B15)</f>
+        <f t="shared" si="2"/>
         <v>163636.36363636365</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" ref="E15:E23" si="0">D15+E14</f>
+        <f t="shared" ref="E15:E23" si="3">D15+E14</f>
         <v>345454.54545454547</v>
       </c>
       <c r="F15" s="4">
-        <f>IC-E15</f>
+        <f t="shared" si="0"/>
         <v>754545.45454545459</v>
       </c>
       <c r="G15" s="37">
-        <f t="shared" ref="G15:G23" si="1">D15/$D$25</f>
+        <f t="shared" ref="G15:G23" si="4">D15/$D$25</f>
         <v>0.16363636363636364</v>
       </c>
     </row>
@@ -3790,23 +3891,23 @@
         <v>3</v>
       </c>
       <c r="C16" s="4">
-        <f>(N-B15)/SUM_N*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>145454.54545454544</v>
       </c>
       <c r="D16" s="4">
-        <f>SYD(IC,SV,N,B16)</f>
+        <f t="shared" si="2"/>
         <v>145454.54545454544</v>
       </c>
       <c r="E16" s="4">
+        <f t="shared" si="3"/>
+        <v>490909.09090909094</v>
+      </c>
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
-        <v>490909.09090909094</v>
-      </c>
-      <c r="F16" s="4">
-        <f>IC-E16</f>
         <v>609090.90909090906</v>
       </c>
       <c r="G16" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.14545454545454542</v>
       </c>
     </row>
@@ -3816,23 +3917,23 @@
         <v>4</v>
       </c>
       <c r="C17" s="4">
-        <f>(N-B16)/SUM_N*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>127272.72727272726</v>
       </c>
       <c r="D17" s="4">
-        <f>SYD(IC,SV,N,B17)</f>
+        <f t="shared" si="2"/>
         <v>127272.72727272728</v>
       </c>
       <c r="E17" s="4">
+        <f t="shared" si="3"/>
+        <v>618181.81818181823</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
-        <v>618181.81818181823</v>
-      </c>
-      <c r="F17" s="4">
-        <f>IC-E17</f>
         <v>481818.18181818177</v>
       </c>
       <c r="G17" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.12727272727272726</v>
       </c>
     </row>
@@ -3842,23 +3943,23 @@
         <v>5</v>
       </c>
       <c r="C18" s="4">
-        <f>(N-B17)/SUM_N*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>109090.90909090909</v>
       </c>
       <c r="D18" s="4">
-        <f>SYD(IC,SV,N,B18)</f>
+        <f t="shared" si="2"/>
         <v>109090.90909090909</v>
       </c>
       <c r="E18" s="4">
+        <f t="shared" si="3"/>
+        <v>727272.72727272729</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" si="0"/>
-        <v>727272.72727272729</v>
-      </c>
-      <c r="F18" s="4">
-        <f>IC-E18</f>
         <v>372727.27272727271</v>
       </c>
       <c r="G18" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.10909090909090907</v>
       </c>
     </row>
@@ -3868,23 +3969,23 @@
         <v>6</v>
       </c>
       <c r="C19" s="4">
-        <f>(N-B18)/SUM_N*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>90909.090909090912</v>
       </c>
       <c r="D19" s="4">
-        <f>SYD(IC,SV,N,B19)</f>
+        <f t="shared" si="2"/>
         <v>90909.090909090912</v>
       </c>
       <c r="E19" s="4">
+        <f t="shared" si="3"/>
+        <v>818181.81818181823</v>
+      </c>
+      <c r="F19" s="4">
         <f t="shared" si="0"/>
-        <v>818181.81818181823</v>
-      </c>
-      <c r="F19" s="4">
-        <f>IC-E19</f>
         <v>281818.18181818177</v>
       </c>
       <c r="G19" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.0909090909090898E-2</v>
       </c>
     </row>
@@ -3894,23 +3995,23 @@
         <v>7</v>
       </c>
       <c r="C20" s="4">
-        <f>(N-B19)/SUM_N*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>72727.272727272721</v>
       </c>
       <c r="D20" s="4">
-        <f>SYD(IC,SV,N,B20)</f>
+        <f t="shared" si="2"/>
         <v>72727.272727272721</v>
       </c>
       <c r="E20" s="4">
+        <f t="shared" si="3"/>
+        <v>890909.09090909094</v>
+      </c>
+      <c r="F20" s="4">
         <f t="shared" si="0"/>
-        <v>890909.09090909094</v>
-      </c>
-      <c r="F20" s="4">
-        <f>IC-E20</f>
         <v>209090.90909090906</v>
       </c>
       <c r="G20" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.272727272727271E-2</v>
       </c>
     </row>
@@ -3920,23 +4021,23 @@
         <v>8</v>
       </c>
       <c r="C21" s="4">
-        <f>(N-B20)/SUM_N*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>54545.454545454544</v>
       </c>
       <c r="D21" s="4">
-        <f>SYD(IC,SV,N,B21)</f>
+        <f t="shared" si="2"/>
         <v>54545.454545454544</v>
       </c>
       <c r="E21" s="4">
+        <f t="shared" si="3"/>
+        <v>945454.54545454553</v>
+      </c>
+      <c r="F21" s="4">
         <f t="shared" si="0"/>
-        <v>945454.54545454553</v>
-      </c>
-      <c r="F21" s="4">
-        <f>IC-E21</f>
         <v>154545.45454545447</v>
       </c>
       <c r="G21" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.4545454545454536E-2</v>
       </c>
     </row>
@@ -3946,23 +4047,23 @@
         <v>9</v>
       </c>
       <c r="C22" s="4">
-        <f>(N-B21)/SUM_N*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>36363.63636363636</v>
       </c>
       <c r="D22" s="4">
-        <f>SYD(IC,SV,N,B22)</f>
+        <f t="shared" si="2"/>
         <v>36363.63636363636</v>
       </c>
       <c r="E22" s="4">
+        <f t="shared" si="3"/>
+        <v>981818.18181818188</v>
+      </c>
+      <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>981818.18181818188</v>
-      </c>
-      <c r="F22" s="4">
-        <f>IC-E22</f>
         <v>118181.81818181812</v>
       </c>
       <c r="G22" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.6363636363636355E-2</v>
       </c>
     </row>
@@ -3972,23 +4073,23 @@
         <v>10</v>
       </c>
       <c r="C23" s="4">
-        <f>(N-B22)/SUM_N*(IC-SV)</f>
+        <f t="shared" si="1"/>
         <v>18181.81818181818</v>
       </c>
       <c r="D23" s="4">
-        <f>SYD(IC,SV,N,B23)</f>
+        <f t="shared" si="2"/>
         <v>18181.81818181818</v>
       </c>
       <c r="E23" s="4">
+        <f t="shared" si="3"/>
+        <v>1000000.0000000001</v>
+      </c>
+      <c r="F23" s="4">
         <f t="shared" si="0"/>
-        <v>1000000.0000000001</v>
-      </c>
-      <c r="F23" s="4">
-        <f>IC-E23</f>
         <v>99999.999999999884</v>
       </c>
       <c r="G23" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.8181818181818177E-2</v>
       </c>
     </row>
@@ -4043,7 +4144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -4149,7 +4250,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4">
-        <f>IC-D13</f>
+        <f t="shared" ref="E13:E23" si="0">IC-D13</f>
         <v>1100000</v>
       </c>
     </row>
@@ -4158,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4">
-        <f>(IC-SV)*G14</f>
+        <f t="shared" ref="C14:C23" si="1">(IC-SV)*G14</f>
         <v>200000</v>
       </c>
       <c r="D14" s="4">
@@ -4166,7 +4267,7 @@
         <v>200000</v>
       </c>
       <c r="E14" s="4">
-        <f>IC-D14</f>
+        <f t="shared" si="0"/>
         <v>900000</v>
       </c>
       <c r="F14">
@@ -4187,22 +4288,22 @@
         <v>2</v>
       </c>
       <c r="C15" s="4">
-        <f>(IC-SV)*G15</f>
+        <f t="shared" si="1"/>
         <v>180000</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" ref="D15:D23" si="0">C15+D14</f>
+        <f t="shared" ref="D15:D23" si="2">C15+D14</f>
         <v>380000</v>
       </c>
       <c r="E15" s="4">
-        <f>IC-D15</f>
+        <f t="shared" si="0"/>
         <v>720000</v>
       </c>
       <c r="F15">
         <v>1800</v>
       </c>
       <c r="G15" s="37">
-        <f t="shared" ref="G15:G23" si="1">F15/$F$25</f>
+        <f t="shared" ref="G15:G23" si="3">F15/$F$25</f>
         <v>0.18</v>
       </c>
       <c r="J15" s="45" t="s">
@@ -4214,22 +4315,22 @@
         <v>3</v>
       </c>
       <c r="C16" s="4">
-        <f>(IC-SV)*G16</f>
+        <f t="shared" si="1"/>
         <v>150000</v>
       </c>
       <c r="D16" s="4">
+        <f t="shared" si="2"/>
+        <v>530000</v>
+      </c>
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>530000</v>
-      </c>
-      <c r="E16" s="4">
-        <f>IC-D16</f>
         <v>570000</v>
       </c>
       <c r="F16">
         <v>1500</v>
       </c>
       <c r="G16" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="J16" t="s">
@@ -4241,22 +4342,22 @@
         <v>4</v>
       </c>
       <c r="C17" s="4">
-        <f>(IC-SV)*G17</f>
+        <f t="shared" si="1"/>
         <v>130000</v>
       </c>
       <c r="D17" s="4">
+        <f t="shared" si="2"/>
+        <v>660000</v>
+      </c>
+      <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>660000</v>
-      </c>
-      <c r="E17" s="4">
-        <f>IC-D17</f>
         <v>440000</v>
       </c>
       <c r="F17">
         <v>1300</v>
       </c>
       <c r="G17" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.13</v>
       </c>
       <c r="J17" t="s">
@@ -4268,22 +4369,22 @@
         <v>5</v>
       </c>
       <c r="C18" s="4">
-        <f>(IC-SV)*G18</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D18" s="4">
+        <f t="shared" si="2"/>
+        <v>760000</v>
+      </c>
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>760000</v>
-      </c>
-      <c r="E18" s="4">
-        <f>IC-D18</f>
         <v>340000</v>
       </c>
       <c r="F18">
         <v>1000</v>
       </c>
       <c r="G18" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="J18" s="40" t="s">
@@ -4295,22 +4396,22 @@
         <v>6</v>
       </c>
       <c r="C19" s="4">
-        <f>(IC-SV)*G19</f>
+        <f t="shared" si="1"/>
         <v>80000</v>
       </c>
       <c r="D19" s="4">
+        <f t="shared" si="2"/>
+        <v>840000</v>
+      </c>
+      <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>840000</v>
-      </c>
-      <c r="E19" s="4">
-        <f>IC-D19</f>
         <v>260000</v>
       </c>
       <c r="F19">
         <v>800</v>
       </c>
       <c r="G19" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
     </row>
@@ -4319,22 +4420,22 @@
         <v>7</v>
       </c>
       <c r="C20" s="4">
-        <f>(IC-SV)*G20</f>
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
       <c r="D20" s="4">
+        <f t="shared" si="2"/>
+        <v>900000</v>
+      </c>
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>900000</v>
-      </c>
-      <c r="E20" s="4">
-        <f>IC-D20</f>
         <v>200000</v>
       </c>
       <c r="F20">
         <v>600</v>
       </c>
       <c r="G20" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
     </row>
@@ -4343,22 +4444,22 @@
         <v>8</v>
       </c>
       <c r="C21" s="4">
-        <f>(IC-SV)*G21</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="D21" s="4">
+        <f t="shared" si="2"/>
+        <v>950000</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>950000</v>
-      </c>
-      <c r="E21" s="4">
-        <f>IC-D21</f>
         <v>150000</v>
       </c>
       <c r="F21">
         <v>500</v>
       </c>
       <c r="G21" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
@@ -4367,22 +4468,22 @@
         <v>9</v>
       </c>
       <c r="C22" s="4">
-        <f>(IC-SV)*G22</f>
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
       <c r="D22" s="4">
+        <f t="shared" si="2"/>
+        <v>980000</v>
+      </c>
+      <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>980000</v>
-      </c>
-      <c r="E22" s="4">
-        <f>IC-D22</f>
         <v>120000</v>
       </c>
       <c r="F22">
         <v>300</v>
       </c>
       <c r="G22" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
     </row>
@@ -4391,22 +4492,22 @@
         <v>10</v>
       </c>
       <c r="C23" s="4">
-        <f>(IC-SV)*G23</f>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="D23" s="4">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="E23" s="4">
-        <f>IC-D23</f>
         <v>100000</v>
       </c>
       <c r="F23">
         <v>200</v>
       </c>
       <c r="G23" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
     </row>
@@ -4455,10 +4556,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4606,10 +4707,22 @@
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="20">
+        <f>Εσοδα</f>
+        <v>3000000</v>
+      </c>
+      <c r="C6" s="20">
+        <f>Εσοδα</f>
+        <v>3000000</v>
+      </c>
+      <c r="D6" s="20">
+        <f>Εσοδα</f>
+        <v>3000000</v>
+      </c>
+      <c r="E6" s="20">
+        <f>Εσοδα</f>
+        <v>3000000</v>
+      </c>
       <c r="F6" s="21"/>
       <c r="G6" s="16"/>
       <c r="H6" s="14"/>
@@ -4632,10 +4745,22 @@
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="43">
+        <f>ΚΠ</f>
+        <v>2555000</v>
+      </c>
+      <c r="C7" s="43">
+        <f>ΚΠ</f>
+        <v>2555000</v>
+      </c>
+      <c r="D7" s="43">
+        <f>ΚΠ</f>
+        <v>2555000</v>
+      </c>
+      <c r="E7" s="43">
+        <f>ΚΠ</f>
+        <v>2555000</v>
+      </c>
       <c r="F7" s="21"/>
       <c r="G7" s="16"/>
       <c r="H7" s="14"/>
@@ -4658,10 +4783,22 @@
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="20">
+        <f>B6-B7</f>
+        <v>445000</v>
+      </c>
+      <c r="C8" s="20">
+        <f t="shared" ref="C8:E8" si="0">C6-C7</f>
+        <v>445000</v>
+      </c>
+      <c r="D8" s="20">
+        <f t="shared" si="0"/>
+        <v>445000</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>445000</v>
+      </c>
       <c r="F8" s="21"/>
       <c r="G8" s="16"/>
       <c r="H8" s="14"/>
@@ -4710,10 +4847,22 @@
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="B10" s="20">
+        <f>ΛΔ</f>
+        <v>90000</v>
+      </c>
+      <c r="C10" s="20">
+        <f>ΛΔ</f>
+        <v>90000</v>
+      </c>
+      <c r="D10" s="20">
+        <f>ΛΔ</f>
+        <v>90000</v>
+      </c>
+      <c r="E10" s="20">
+        <f>ΛΔ</f>
+        <v>90000</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="16"/>
       <c r="H10" s="14"/>
@@ -4736,10 +4885,22 @@
       <c r="A11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="20">
+        <f>B8-B10</f>
+        <v>355000</v>
+      </c>
+      <c r="C11" s="20">
+        <f t="shared" ref="C11:E11" si="1">C8-C10</f>
+        <v>355000</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" si="1"/>
+        <v>355000</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="1"/>
+        <v>355000</v>
+      </c>
       <c r="F11" s="21"/>
       <c r="G11" s="16"/>
       <c r="H11" s="14"/>
@@ -4762,10 +4923,22 @@
       <c r="A12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="38">
+        <f>'Pin1-SLN'!C16</f>
+        <v>100000</v>
+      </c>
+      <c r="C12" s="39">
+        <f>'Pin2-DDB'!C15</f>
+        <v>176000</v>
+      </c>
+      <c r="D12" s="39">
+        <f>'Pin3-SYD'!C15</f>
+        <v>163636.36363636365</v>
+      </c>
+      <c r="E12" s="39">
+        <f>'Pin4-ORES'!C15</f>
+        <v>180000</v>
+      </c>
       <c r="F12" s="21"/>
       <c r="G12" s="16"/>
       <c r="H12" s="14"/>
@@ -4788,10 +4961,22 @@
       <c r="A13" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="20">
+        <f>B11-B12</f>
+        <v>255000</v>
+      </c>
+      <c r="C13" s="20">
+        <f t="shared" ref="C13:E13" si="2">C11-C12</f>
+        <v>179000</v>
+      </c>
+      <c r="D13" s="20">
+        <f t="shared" si="2"/>
+        <v>191363.63636363635</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="2"/>
+        <v>175000</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="16"/>
       <c r="H13" s="14"/>
@@ -4814,10 +4999,22 @@
       <c r="A14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="B14" s="43">
+        <f>Τοκος</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="43">
+        <f>Τοκος</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="43">
+        <f>Τοκος</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="43">
+        <f>Τοκος</f>
+        <v>0</v>
+      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="16"/>
       <c r="H14" s="14"/>
@@ -4840,10 +5037,22 @@
       <c r="A15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="21">
+        <f>B13-B14</f>
+        <v>255000</v>
+      </c>
+      <c r="C15" s="21">
+        <f t="shared" ref="C15:E15" si="3">C13-C14</f>
+        <v>179000</v>
+      </c>
+      <c r="D15" s="21">
+        <f t="shared" si="3"/>
+        <v>191363.63636363635</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="3"/>
+        <v>175000</v>
+      </c>
       <c r="F15" s="21"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -4866,10 +5075,22 @@
       <c r="A16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
+      <c r="B16" s="44">
+        <f>B15*ΣΦ</f>
+        <v>89250</v>
+      </c>
+      <c r="C16" s="44">
+        <f>C15*ΣΦ</f>
+        <v>62649.999999999993</v>
+      </c>
+      <c r="D16" s="44">
+        <f>D15*ΣΦ</f>
+        <v>66977.272727272721</v>
+      </c>
+      <c r="E16" s="44">
+        <f>E15*ΣΦ</f>
+        <v>61249.999999999993</v>
+      </c>
       <c r="F16" s="21"/>
       <c r="G16" s="16"/>
       <c r="H16" s="14"/>
@@ -4892,10 +5113,22 @@
       <c r="A17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="B17" s="49">
+        <f>B15-B16</f>
+        <v>165750</v>
+      </c>
+      <c r="C17" s="49">
+        <f t="shared" ref="C17:E17" si="4">C15-C16</f>
+        <v>116350</v>
+      </c>
+      <c r="D17" s="49">
+        <f t="shared" si="4"/>
+        <v>124386.36363636363</v>
+      </c>
+      <c r="E17" s="49">
+        <f t="shared" si="4"/>
+        <v>113750</v>
+      </c>
       <c r="F17" s="21"/>
       <c r="G17" s="16"/>
       <c r="H17" s="14"/>
@@ -4916,10 +5149,10 @@
     </row>
     <row r="18" spans="1:22" ht="14.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
       <c r="F18" s="21"/>
       <c r="G18" s="16"/>
       <c r="H18" s="14"/>
@@ -4940,10 +5173,10 @@
     </row>
     <row r="19" spans="1:22" ht="14.25">
       <c r="A19" s="16"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
       <c r="F19" s="21"/>
       <c r="G19" s="16"/>
       <c r="H19" s="14"/>
@@ -4966,10 +5199,22 @@
       <c r="A20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="B20" s="50">
+        <f>B17+B14+B12</f>
+        <v>265750</v>
+      </c>
+      <c r="C20" s="50">
+        <f t="shared" ref="C20:E20" si="5">C17+C14+C12</f>
+        <v>292350</v>
+      </c>
+      <c r="D20" s="50">
+        <f t="shared" si="5"/>
+        <v>288022.72727272729</v>
+      </c>
+      <c r="E20" s="50">
+        <f t="shared" si="5"/>
+        <v>293750</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="16"/>
       <c r="H20" s="14"/>
@@ -5066,6 +5311,22 @@
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="B24" s="3">
+        <f>IC</f>
+        <v>1100000</v>
+      </c>
+      <c r="C24" s="3">
+        <f>IC</f>
+        <v>1100000</v>
+      </c>
+      <c r="D24" s="3">
+        <f>IC</f>
+        <v>1100000</v>
+      </c>
+      <c r="E24" s="3">
+        <f>IC</f>
+        <v>1100000</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -5088,10 +5349,22 @@
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
+      <c r="B25" s="42">
+        <f>'Pin1-SLN'!E16</f>
+        <v>200000</v>
+      </c>
+      <c r="C25" s="42">
+        <f>'Pin2-DDB'!E15</f>
+        <v>396000</v>
+      </c>
+      <c r="D25" s="42">
+        <f>'Pin3-SYD'!E15</f>
+        <v>345454.54545454547</v>
+      </c>
+      <c r="E25" s="42">
+        <f>'Pin4-ORES'!D15</f>
+        <v>380000</v>
+      </c>
       <c r="F25" s="21"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -5114,10 +5387,22 @@
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
+      <c r="B26" s="50">
+        <f>B24-B25</f>
+        <v>900000</v>
+      </c>
+      <c r="C26" s="50">
+        <f t="shared" ref="C26:E26" si="6">C24-C25</f>
+        <v>704000</v>
+      </c>
+      <c r="D26" s="50">
+        <f t="shared" si="6"/>
+        <v>754545.45454545459</v>
+      </c>
+      <c r="E26" s="50">
+        <f t="shared" si="6"/>
+        <v>720000</v>
+      </c>
       <c r="F26" s="21"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -5197,6 +5482,57 @@
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="40"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="40" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -5244,19 +5580,19 @@
       </c>
       <c r="C2">
         <f>'Pin5-AX_ISOL'!B8</f>
-        <v>0</v>
+        <v>445000</v>
       </c>
       <c r="D2">
         <f>'Pin5-AX_ISOL'!C8</f>
-        <v>0</v>
+        <v>445000</v>
       </c>
       <c r="E2">
         <f>'Pin5-AX_ISOL'!D8</f>
-        <v>0</v>
+        <v>445000</v>
       </c>
       <c r="F2">
         <f>'Pin5-AX_ISOL'!E8</f>
-        <v>0</v>
+        <v>445000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5265,19 +5601,19 @@
       </c>
       <c r="C3">
         <f>'Pin5-AX_ISOL'!B12</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="D3">
         <f>'Pin5-AX_ISOL'!C12</f>
-        <v>0</v>
+        <v>176000</v>
       </c>
       <c r="E3">
         <f>'Pin5-AX_ISOL'!D12</f>
-        <v>0</v>
+        <v>163636.36363636365</v>
       </c>
       <c r="F3">
         <f>'Pin5-AX_ISOL'!E12</f>
-        <v>0</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5286,19 +5622,19 @@
       </c>
       <c r="C4">
         <f>'Pin5-AX_ISOL'!B17</f>
-        <v>0</v>
+        <v>165750</v>
       </c>
       <c r="D4">
         <f>'Pin5-AX_ISOL'!C17</f>
-        <v>0</v>
+        <v>116350</v>
       </c>
       <c r="E4">
         <f>'Pin5-AX_ISOL'!D17</f>
-        <v>0</v>
+        <v>124386.36363636363</v>
       </c>
       <c r="F4">
         <f>'Pin5-AX_ISOL'!E17</f>
-        <v>0</v>
+        <v>113750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5307,19 +5643,19 @@
       </c>
       <c r="C5">
         <f>'Pin5-AX_ISOL'!B20</f>
-        <v>0</v>
+        <v>265750</v>
       </c>
       <c r="D5">
         <f>'Pin5-AX_ISOL'!C20</f>
-        <v>0</v>
+        <v>292350</v>
       </c>
       <c r="E5">
         <f>'Pin5-AX_ISOL'!D20</f>
-        <v>0</v>
+        <v>288022.72727272729</v>
       </c>
       <c r="F5">
         <f>'Pin5-AX_ISOL'!E20</f>
-        <v>0</v>
+        <v>293750</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5328,19 +5664,19 @@
       </c>
       <c r="C6">
         <f>'Pin5-AX_ISOL'!B24</f>
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="D6">
         <f>'Pin5-AX_ISOL'!C24</f>
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="E6">
         <f>'Pin5-AX_ISOL'!D24</f>
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="F6">
         <f>'Pin5-AX_ISOL'!E24</f>
-        <v>0</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5349,19 +5685,19 @@
       </c>
       <c r="C7">
         <f>'Pin5-AX_ISOL'!B25</f>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="D7">
         <f>'Pin5-AX_ISOL'!C25</f>
-        <v>0</v>
+        <v>396000</v>
       </c>
       <c r="E7">
         <f>'Pin5-AX_ISOL'!D25</f>
-        <v>0</v>
+        <v>345454.54545454547</v>
       </c>
       <c r="F7">
         <f>'Pin5-AX_ISOL'!E25</f>
-        <v>0</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5370,19 +5706,19 @@
       </c>
       <c r="C8">
         <f>'Pin5-AX_ISOL'!B26</f>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="D8">
         <f>'Pin5-AX_ISOL'!C26</f>
-        <v>0</v>
+        <v>704000</v>
       </c>
       <c r="E8">
         <f>'Pin5-AX_ISOL'!D26</f>
-        <v>0</v>
+        <v>754545.45454545459</v>
       </c>
       <c r="F8">
         <f>'Pin5-AX_ISOL'!E26</f>
-        <v>0</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5408,19 +5744,19 @@
       </c>
       <c r="C13">
         <f>'Pin5-AX_ISOL'!B12</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="D13">
         <f>'Pin5-AX_ISOL'!C12</f>
-        <v>0</v>
+        <v>176000</v>
       </c>
       <c r="E13">
         <f>'Pin5-AX_ISOL'!D12</f>
-        <v>0</v>
+        <v>163636.36363636365</v>
       </c>
       <c r="F13">
         <f>'Pin5-AX_ISOL'!E12</f>
-        <v>0</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5429,19 +5765,19 @@
       </c>
       <c r="C14">
         <f>'Pin5-AX_ISOL'!B24</f>
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="D14">
         <f>'Pin5-AX_ISOL'!C24</f>
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="E14">
         <f>'Pin5-AX_ISOL'!D24</f>
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="F14">
         <f>'Pin5-AX_ISOL'!E24</f>
-        <v>0</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5450,19 +5786,19 @@
       </c>
       <c r="C15">
         <f>'Pin5-AX_ISOL'!B25</f>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="D15">
         <f>'Pin5-AX_ISOL'!C25</f>
-        <v>0</v>
+        <v>396000</v>
       </c>
       <c r="E15">
         <f>'Pin5-AX_ISOL'!D25</f>
-        <v>0</v>
+        <v>345454.54545454547</v>
       </c>
       <c r="F15">
         <f>'Pin5-AX_ISOL'!E25</f>
-        <v>0</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5471,19 +5807,19 @@
       </c>
       <c r="C16">
         <f>'Pin5-AX_ISOL'!B26</f>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="D16">
         <f>'Pin5-AX_ISOL'!C26</f>
-        <v>0</v>
+        <v>704000</v>
       </c>
       <c r="E16">
         <f>'Pin5-AX_ISOL'!D26</f>
-        <v>0</v>
+        <v>754545.45454545459</v>
       </c>
       <c r="F16">
         <f>'Pin5-AX_ISOL'!E26</f>
-        <v>0</v>
+        <v>720000</v>
       </c>
     </row>
   </sheetData>
